--- a/create-spec-format/簡易詳細設計書フォーマット.xlsx
+++ b/create-spec-format/簡易詳細設計書フォーマット.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\spec21\subject-0910\create-spec-format\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{041866EF-F436-4E4B-ACA0-E2F4D8E23D94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A044F2E-EBA5-43E0-B521-26CD6781326A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F7A35E98-877A-4415-B0D5-BE966B404DE1}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="画面設計書" sheetId="2" r:id="rId2"/>
     <sheet name="入力設計書" sheetId="4" r:id="rId3"/>
     <sheet name="出力設計書" sheetId="5" r:id="rId4"/>
+    <sheet name="社員マスタ" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="53">
   <si>
     <t>　システム名</t>
   </si>
@@ -132,6 +133,164 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>　テーブルID</t>
+  </si>
+  <si>
+    <t>社員マスタ</t>
+  </si>
+  <si>
+    <t>データ型</t>
+  </si>
+  <si>
+    <t>サイズ</t>
+  </si>
+  <si>
+    <t>　説明</t>
+  </si>
+  <si>
+    <t>主キー</t>
+  </si>
+  <si>
+    <t>社員コード</t>
+  </si>
+  <si>
+    <t>VARCHAR</t>
+  </si>
+  <si>
+    <t>氏名</t>
+  </si>
+  <si>
+    <t>フリガナ</t>
+  </si>
+  <si>
+    <t>所属</t>
+  </si>
+  <si>
+    <t>性別</t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>DATETIME</t>
+  </si>
+  <si>
+    <t>更新日</t>
+  </si>
+  <si>
+    <t>給与</t>
+  </si>
+  <si>
+    <t>手当</t>
+  </si>
+  <si>
+    <t>管理者</t>
+  </si>
+  <si>
+    <t>生年月日</t>
+  </si>
+  <si>
+    <t>コード名称マスタに登録されているコード</t>
+    <rPh sb="3" eb="5">
+      <t>メイショウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0:男性,1:女性</t>
+    <rPh sb="2" eb="4">
+      <t>ダンセイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レコードが作成された日付:時間</t>
+    <rPh sb="5" eb="7">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レコードが修正された日付:時間</t>
+    <rPh sb="5" eb="7">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>常に数値がセットされる</t>
+    <rPh sb="0" eb="1">
+      <t>ツネ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>スウチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手当が無い社員は NULL が設定される</t>
+    <rPh sb="0" eb="2">
+      <t>テアテ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この社員の管理者の社員コード</t>
+    <rPh sb="2" eb="4">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者が存在しない場合は NULL を設定</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -140,7 +299,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$]ggge&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@" x16r2:formatCode16="[$-ja-JP-x-gannen]ggge&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,6 +324,14 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -174,7 +341,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -565,13 +732,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -749,9 +960,100 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{5AEEE2EA-6ACB-4CA7-B6F4-ACC269891103}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1202,7 +1504,7 @@
   <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1728,8 +2030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61D7D25A-0F26-4A60-AB5E-5D50A2FE516B}">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1797,12 +2099,8 @@
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
-      <c r="F4" s="58">
-        <v>44449</v>
-      </c>
-      <c r="G4" s="27" t="s">
-        <v>25</v>
-      </c>
+      <c r="F4" s="58"/>
+      <c r="G4" s="27"/>
       <c r="H4" s="24"/>
     </row>
     <row r="5" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2258,8 +2556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{519C1F2A-E8F7-40E4-829E-0197FE30DF97}">
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2327,12 +2625,8 @@
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
       <c r="E4" s="10"/>
-      <c r="F4" s="57">
-        <v>44449</v>
-      </c>
-      <c r="G4" s="27" t="s">
-        <v>25</v>
-      </c>
+      <c r="F4" s="57"/>
+      <c r="G4" s="27"/>
       <c r="H4" s="24"/>
     </row>
     <row r="5" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -2739,8 +3033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2ADE1E7-CDB3-4AC5-AFD3-6EA076D97992}">
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2808,12 +3102,8 @@
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
       <c r="E4" s="16"/>
-      <c r="F4" s="56">
-        <v>44449</v>
-      </c>
-      <c r="G4" s="53" t="s">
-        <v>25</v>
-      </c>
+      <c r="F4" s="56"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="24"/>
     </row>
     <row r="5" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -3210,4 +3500,1191 @@
     <oddHeader>&amp;C&amp;18&amp;A</oddHeader>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{008CBE8E-BBE1-43B1-B063-796BF01D7DDE}">
+  <dimension ref="A1:K71"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="4.125" style="65" customWidth="1"/>
+    <col min="2" max="2" width="27.625" style="65" customWidth="1"/>
+    <col min="3" max="3" width="1.25" style="65" customWidth="1"/>
+    <col min="4" max="4" width="15.625" style="65" customWidth="1"/>
+    <col min="5" max="5" width="5.125" style="65" customWidth="1"/>
+    <col min="6" max="6" width="3.625" style="65" customWidth="1"/>
+    <col min="7" max="7" width="1.25" style="65" customWidth="1"/>
+    <col min="8" max="8" width="14.125" style="65" customWidth="1"/>
+    <col min="9" max="9" width="1.25" style="65" customWidth="1"/>
+    <col min="10" max="10" width="24.625" style="65" customWidth="1"/>
+    <col min="11" max="11" width="12.625" style="65" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="65"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="60"/>
+      <c r="C1" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="63"/>
+      <c r="K1" s="64" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="24.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="66"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="70" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="71" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="75"/>
+      <c r="I3" s="74" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="75"/>
+      <c r="K3" s="76" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="66"/>
+      <c r="B4" s="68" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="78"/>
+      <c r="K4" s="79"/>
+    </row>
+    <row r="5" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="60"/>
+      <c r="C5" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="63"/>
+      <c r="E5" s="62" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="63"/>
+      <c r="G5" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="61"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="64" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="80">
+        <v>1</v>
+      </c>
+      <c r="B6" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="81">
+        <v>4</v>
+      </c>
+      <c r="F6" s="60"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="82">
+        <v>2</v>
+      </c>
+      <c r="B7" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="83">
+        <v>50</v>
+      </c>
+      <c r="F7" s="69"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="70"/>
+    </row>
+    <row r="8" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="82">
+        <v>3</v>
+      </c>
+      <c r="B8" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="83">
+        <v>50</v>
+      </c>
+      <c r="F8" s="69"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="70"/>
+    </row>
+    <row r="9" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="82">
+        <v>4</v>
+      </c>
+      <c r="B9" s="69" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="83">
+        <v>4</v>
+      </c>
+      <c r="F9" s="69"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="68" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" s="68"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="70"/>
+    </row>
+    <row r="10" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="82">
+        <v>5</v>
+      </c>
+      <c r="B10" s="69" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="83"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="68" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" s="68"/>
+      <c r="J10" s="69"/>
+      <c r="K10" s="70"/>
+    </row>
+    <row r="11" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="82">
+        <v>6</v>
+      </c>
+      <c r="B11" s="69" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="68"/>
+      <c r="D11" s="68" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="83"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" s="68"/>
+      <c r="J11" s="69"/>
+      <c r="K11" s="70"/>
+    </row>
+    <row r="12" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="82">
+        <v>7</v>
+      </c>
+      <c r="B12" s="69" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="68"/>
+      <c r="D12" s="68" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="83"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="68" t="s">
+        <v>48</v>
+      </c>
+      <c r="I12" s="68"/>
+      <c r="J12" s="69"/>
+      <c r="K12" s="70"/>
+    </row>
+    <row r="13" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="82">
+        <v>8</v>
+      </c>
+      <c r="B13" s="69" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="83"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68" t="s">
+        <v>49</v>
+      </c>
+      <c r="I13" s="68"/>
+      <c r="J13" s="69"/>
+      <c r="K13" s="70"/>
+    </row>
+    <row r="14" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="82">
+        <v>9</v>
+      </c>
+      <c r="B14" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="68"/>
+      <c r="D14" s="68" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="83"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="68" t="s">
+        <v>50</v>
+      </c>
+      <c r="I14" s="68"/>
+      <c r="J14" s="69"/>
+      <c r="K14" s="70"/>
+    </row>
+    <row r="15" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="82">
+        <v>10</v>
+      </c>
+      <c r="B15" s="69" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="68"/>
+      <c r="D15" s="68" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="83">
+        <v>4</v>
+      </c>
+      <c r="F15" s="69"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="68" t="s">
+        <v>51</v>
+      </c>
+      <c r="I15" s="68"/>
+      <c r="J15" s="69"/>
+      <c r="K15" s="70"/>
+    </row>
+    <row r="16" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="82"/>
+      <c r="B16" s="69"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="83"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="68" t="s">
+        <v>52</v>
+      </c>
+      <c r="I16" s="68"/>
+      <c r="J16" s="69"/>
+      <c r="K16" s="70"/>
+    </row>
+    <row r="17" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="82">
+        <v>11</v>
+      </c>
+      <c r="B17" s="69" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="68"/>
+      <c r="D17" s="68" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="83"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="69"/>
+      <c r="K17" s="70"/>
+    </row>
+    <row r="18" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="82">
+        <v>12</v>
+      </c>
+      <c r="B18" s="69"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="83"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="68"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="69"/>
+      <c r="K18" s="70"/>
+    </row>
+    <row r="19" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="82">
+        <v>13</v>
+      </c>
+      <c r="B19" s="69"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="83"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="68"/>
+      <c r="H19" s="68"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="69"/>
+      <c r="K19" s="70"/>
+    </row>
+    <row r="20" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="82">
+        <v>14</v>
+      </c>
+      <c r="B20" s="69"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="83"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="68"/>
+      <c r="H20" s="68"/>
+      <c r="I20" s="68"/>
+      <c r="J20" s="69"/>
+      <c r="K20" s="70"/>
+    </row>
+    <row r="21" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="82">
+        <v>15</v>
+      </c>
+      <c r="B21" s="69"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="83"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="68"/>
+      <c r="H21" s="68"/>
+      <c r="I21" s="68"/>
+      <c r="J21" s="69"/>
+      <c r="K21" s="70"/>
+    </row>
+    <row r="22" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="82">
+        <v>16</v>
+      </c>
+      <c r="B22" s="69"/>
+      <c r="C22" s="68"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="83"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="68"/>
+      <c r="H22" s="68"/>
+      <c r="I22" s="68"/>
+      <c r="J22" s="69"/>
+      <c r="K22" s="70"/>
+    </row>
+    <row r="23" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="82">
+        <v>17</v>
+      </c>
+      <c r="B23" s="69"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="83"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="68"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="68"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="70"/>
+    </row>
+    <row r="24" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="82">
+        <v>18</v>
+      </c>
+      <c r="B24" s="69"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="83"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="68"/>
+      <c r="H24" s="68"/>
+      <c r="I24" s="68"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="70"/>
+    </row>
+    <row r="25" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="82">
+        <v>19</v>
+      </c>
+      <c r="B25" s="69"/>
+      <c r="C25" s="68"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="83"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="68"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="68"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="70"/>
+    </row>
+    <row r="26" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="82">
+        <v>20</v>
+      </c>
+      <c r="B26" s="69"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="83"/>
+      <c r="F26" s="69"/>
+      <c r="G26" s="68"/>
+      <c r="H26" s="68"/>
+      <c r="I26" s="68"/>
+      <c r="J26" s="69"/>
+      <c r="K26" s="70"/>
+    </row>
+    <row r="27" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="82">
+        <v>21</v>
+      </c>
+      <c r="B27" s="69"/>
+      <c r="C27" s="68"/>
+      <c r="D27" s="68"/>
+      <c r="E27" s="83"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="68"/>
+      <c r="H27" s="68"/>
+      <c r="I27" s="68"/>
+      <c r="J27" s="69"/>
+      <c r="K27" s="70"/>
+    </row>
+    <row r="28" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="82">
+        <v>22</v>
+      </c>
+      <c r="B28" s="69"/>
+      <c r="C28" s="68"/>
+      <c r="D28" s="68"/>
+      <c r="E28" s="83"/>
+      <c r="F28" s="69"/>
+      <c r="G28" s="68"/>
+      <c r="H28" s="68"/>
+      <c r="I28" s="68"/>
+      <c r="J28" s="69"/>
+      <c r="K28" s="70"/>
+    </row>
+    <row r="29" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="82">
+        <v>23</v>
+      </c>
+      <c r="B29" s="69"/>
+      <c r="C29" s="68"/>
+      <c r="D29" s="68"/>
+      <c r="E29" s="83"/>
+      <c r="F29" s="69"/>
+      <c r="G29" s="68"/>
+      <c r="H29" s="68"/>
+      <c r="I29" s="68"/>
+      <c r="J29" s="69"/>
+      <c r="K29" s="70"/>
+    </row>
+    <row r="30" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="82">
+        <v>24</v>
+      </c>
+      <c r="B30" s="69"/>
+      <c r="C30" s="68"/>
+      <c r="D30" s="68"/>
+      <c r="E30" s="83"/>
+      <c r="F30" s="69"/>
+      <c r="G30" s="68"/>
+      <c r="H30" s="68"/>
+      <c r="I30" s="68"/>
+      <c r="J30" s="69"/>
+      <c r="K30" s="70"/>
+    </row>
+    <row r="31" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="82">
+        <v>25</v>
+      </c>
+      <c r="B31" s="69"/>
+      <c r="C31" s="68"/>
+      <c r="D31" s="68"/>
+      <c r="E31" s="83"/>
+      <c r="F31" s="69"/>
+      <c r="G31" s="68"/>
+      <c r="H31" s="68"/>
+      <c r="I31" s="68"/>
+      <c r="J31" s="69"/>
+      <c r="K31" s="70"/>
+    </row>
+    <row r="32" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="82">
+        <v>26</v>
+      </c>
+      <c r="B32" s="69"/>
+      <c r="C32" s="68"/>
+      <c r="D32" s="68"/>
+      <c r="E32" s="83"/>
+      <c r="F32" s="69"/>
+      <c r="G32" s="68"/>
+      <c r="H32" s="68"/>
+      <c r="I32" s="68"/>
+      <c r="J32" s="69"/>
+      <c r="K32" s="70"/>
+    </row>
+    <row r="33" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="82">
+        <v>27</v>
+      </c>
+      <c r="B33" s="69"/>
+      <c r="C33" s="68"/>
+      <c r="D33" s="68"/>
+      <c r="E33" s="83"/>
+      <c r="F33" s="69"/>
+      <c r="G33" s="68"/>
+      <c r="H33" s="68"/>
+      <c r="I33" s="68"/>
+      <c r="J33" s="69"/>
+      <c r="K33" s="70"/>
+    </row>
+    <row r="34" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="82">
+        <v>28</v>
+      </c>
+      <c r="B34" s="69"/>
+      <c r="C34" s="68"/>
+      <c r="D34" s="68"/>
+      <c r="E34" s="83"/>
+      <c r="F34" s="69"/>
+      <c r="G34" s="68"/>
+      <c r="H34" s="68"/>
+      <c r="I34" s="68"/>
+      <c r="J34" s="69"/>
+      <c r="K34" s="70"/>
+    </row>
+    <row r="35" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="82">
+        <v>29</v>
+      </c>
+      <c r="B35" s="69"/>
+      <c r="C35" s="68"/>
+      <c r="D35" s="68"/>
+      <c r="E35" s="83"/>
+      <c r="F35" s="69"/>
+      <c r="G35" s="68"/>
+      <c r="H35" s="68"/>
+      <c r="I35" s="68"/>
+      <c r="J35" s="69"/>
+      <c r="K35" s="70"/>
+    </row>
+    <row r="36" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="82">
+        <v>30</v>
+      </c>
+      <c r="B36" s="69"/>
+      <c r="C36" s="68"/>
+      <c r="D36" s="68"/>
+      <c r="E36" s="83"/>
+      <c r="F36" s="69"/>
+      <c r="G36" s="68"/>
+      <c r="H36" s="68"/>
+      <c r="I36" s="68"/>
+      <c r="J36" s="69"/>
+      <c r="K36" s="70"/>
+    </row>
+    <row r="37" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="82">
+        <v>31</v>
+      </c>
+      <c r="B37" s="69"/>
+      <c r="C37" s="68"/>
+      <c r="D37" s="68"/>
+      <c r="E37" s="83"/>
+      <c r="F37" s="69"/>
+      <c r="G37" s="68"/>
+      <c r="H37" s="68"/>
+      <c r="I37" s="68"/>
+      <c r="J37" s="69"/>
+      <c r="K37" s="70"/>
+    </row>
+    <row r="38" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="82">
+        <v>32</v>
+      </c>
+      <c r="B38" s="69"/>
+      <c r="C38" s="68"/>
+      <c r="D38" s="68"/>
+      <c r="E38" s="83"/>
+      <c r="F38" s="69"/>
+      <c r="G38" s="68"/>
+      <c r="H38" s="68"/>
+      <c r="I38" s="68"/>
+      <c r="J38" s="69"/>
+      <c r="K38" s="70"/>
+    </row>
+    <row r="39" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="82">
+        <v>33</v>
+      </c>
+      <c r="B39" s="69"/>
+      <c r="C39" s="68"/>
+      <c r="D39" s="68"/>
+      <c r="E39" s="83"/>
+      <c r="F39" s="69"/>
+      <c r="G39" s="68"/>
+      <c r="H39" s="68"/>
+      <c r="I39" s="68"/>
+      <c r="J39" s="69"/>
+      <c r="K39" s="70"/>
+    </row>
+    <row r="40" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="82">
+        <v>34</v>
+      </c>
+      <c r="B40" s="69"/>
+      <c r="C40" s="68"/>
+      <c r="D40" s="68"/>
+      <c r="E40" s="83"/>
+      <c r="F40" s="69"/>
+      <c r="G40" s="68"/>
+      <c r="H40" s="68"/>
+      <c r="I40" s="68"/>
+      <c r="J40" s="69"/>
+      <c r="K40" s="70"/>
+    </row>
+    <row r="41" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="82">
+        <v>35</v>
+      </c>
+      <c r="B41" s="69"/>
+      <c r="C41" s="68"/>
+      <c r="D41" s="68"/>
+      <c r="E41" s="83"/>
+      <c r="F41" s="69"/>
+      <c r="G41" s="68"/>
+      <c r="H41" s="68"/>
+      <c r="I41" s="68"/>
+      <c r="J41" s="69"/>
+      <c r="K41" s="70"/>
+    </row>
+    <row r="42" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="82">
+        <v>36</v>
+      </c>
+      <c r="B42" s="69"/>
+      <c r="C42" s="68"/>
+      <c r="D42" s="68"/>
+      <c r="E42" s="83"/>
+      <c r="F42" s="69"/>
+      <c r="G42" s="68"/>
+      <c r="H42" s="68"/>
+      <c r="I42" s="68"/>
+      <c r="J42" s="69"/>
+      <c r="K42" s="70"/>
+    </row>
+    <row r="43" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="82">
+        <v>37</v>
+      </c>
+      <c r="B43" s="69"/>
+      <c r="C43" s="68"/>
+      <c r="D43" s="68"/>
+      <c r="E43" s="83"/>
+      <c r="F43" s="69"/>
+      <c r="G43" s="68"/>
+      <c r="H43" s="68"/>
+      <c r="I43" s="68"/>
+      <c r="J43" s="69"/>
+      <c r="K43" s="70"/>
+    </row>
+    <row r="44" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="82">
+        <v>38</v>
+      </c>
+      <c r="B44" s="69"/>
+      <c r="C44" s="68"/>
+      <c r="D44" s="68"/>
+      <c r="E44" s="83"/>
+      <c r="F44" s="69"/>
+      <c r="G44" s="68"/>
+      <c r="H44" s="68"/>
+      <c r="I44" s="68"/>
+      <c r="J44" s="69"/>
+      <c r="K44" s="70"/>
+    </row>
+    <row r="45" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="82">
+        <v>39</v>
+      </c>
+      <c r="B45" s="69"/>
+      <c r="C45" s="68"/>
+      <c r="D45" s="68"/>
+      <c r="E45" s="83"/>
+      <c r="F45" s="69"/>
+      <c r="G45" s="68"/>
+      <c r="H45" s="68"/>
+      <c r="I45" s="68"/>
+      <c r="J45" s="69"/>
+      <c r="K45" s="70"/>
+    </row>
+    <row r="46" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="82">
+        <v>40</v>
+      </c>
+      <c r="B46" s="69"/>
+      <c r="C46" s="68"/>
+      <c r="D46" s="68"/>
+      <c r="E46" s="83"/>
+      <c r="F46" s="69"/>
+      <c r="G46" s="68"/>
+      <c r="H46" s="68"/>
+      <c r="I46" s="68"/>
+      <c r="J46" s="69"/>
+      <c r="K46" s="70"/>
+    </row>
+    <row r="47" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="82">
+        <v>41</v>
+      </c>
+      <c r="B47" s="69"/>
+      <c r="C47" s="68"/>
+      <c r="D47" s="68"/>
+      <c r="E47" s="83"/>
+      <c r="F47" s="69"/>
+      <c r="G47" s="68"/>
+      <c r="H47" s="68"/>
+      <c r="I47" s="68"/>
+      <c r="J47" s="69"/>
+      <c r="K47" s="70"/>
+    </row>
+    <row r="48" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="82">
+        <v>42</v>
+      </c>
+      <c r="B48" s="69"/>
+      <c r="C48" s="68"/>
+      <c r="D48" s="68"/>
+      <c r="E48" s="83"/>
+      <c r="F48" s="69"/>
+      <c r="G48" s="68"/>
+      <c r="H48" s="68"/>
+      <c r="I48" s="68"/>
+      <c r="J48" s="69"/>
+      <c r="K48" s="70"/>
+    </row>
+    <row r="49" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="82">
+        <v>43</v>
+      </c>
+      <c r="B49" s="69"/>
+      <c r="C49" s="68"/>
+      <c r="D49" s="68"/>
+      <c r="E49" s="83"/>
+      <c r="F49" s="69"/>
+      <c r="G49" s="68"/>
+      <c r="H49" s="68"/>
+      <c r="I49" s="68"/>
+      <c r="J49" s="69"/>
+      <c r="K49" s="70"/>
+    </row>
+    <row r="50" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="82">
+        <v>44</v>
+      </c>
+      <c r="B50" s="69"/>
+      <c r="C50" s="68"/>
+      <c r="D50" s="68"/>
+      <c r="E50" s="83"/>
+      <c r="F50" s="69"/>
+      <c r="G50" s="68"/>
+      <c r="H50" s="68"/>
+      <c r="I50" s="68"/>
+      <c r="J50" s="69"/>
+      <c r="K50" s="70"/>
+    </row>
+    <row r="51" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="82">
+        <v>45</v>
+      </c>
+      <c r="B51" s="69"/>
+      <c r="C51" s="68"/>
+      <c r="D51" s="68"/>
+      <c r="E51" s="83"/>
+      <c r="F51" s="69"/>
+      <c r="G51" s="68"/>
+      <c r="H51" s="68"/>
+      <c r="I51" s="68"/>
+      <c r="J51" s="69"/>
+      <c r="K51" s="70"/>
+    </row>
+    <row r="52" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="82">
+        <v>46</v>
+      </c>
+      <c r="B52" s="69"/>
+      <c r="C52" s="68"/>
+      <c r="D52" s="68"/>
+      <c r="E52" s="83"/>
+      <c r="F52" s="69"/>
+      <c r="G52" s="68"/>
+      <c r="H52" s="68"/>
+      <c r="I52" s="68"/>
+      <c r="J52" s="69"/>
+      <c r="K52" s="70"/>
+    </row>
+    <row r="53" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="82">
+        <v>47</v>
+      </c>
+      <c r="B53" s="69"/>
+      <c r="C53" s="68"/>
+      <c r="D53" s="68"/>
+      <c r="E53" s="83"/>
+      <c r="F53" s="69"/>
+      <c r="G53" s="68"/>
+      <c r="H53" s="68"/>
+      <c r="I53" s="68"/>
+      <c r="J53" s="69"/>
+      <c r="K53" s="70"/>
+    </row>
+    <row r="54" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="82">
+        <v>48</v>
+      </c>
+      <c r="B54" s="69"/>
+      <c r="C54" s="68"/>
+      <c r="D54" s="68"/>
+      <c r="E54" s="83"/>
+      <c r="F54" s="69"/>
+      <c r="G54" s="68"/>
+      <c r="H54" s="68"/>
+      <c r="I54" s="68"/>
+      <c r="J54" s="69"/>
+      <c r="K54" s="70"/>
+    </row>
+    <row r="55" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="82">
+        <v>49</v>
+      </c>
+      <c r="B55" s="69"/>
+      <c r="C55" s="68"/>
+      <c r="D55" s="68"/>
+      <c r="E55" s="83"/>
+      <c r="F55" s="69"/>
+      <c r="G55" s="68"/>
+      <c r="H55" s="68"/>
+      <c r="I55" s="68"/>
+      <c r="J55" s="69"/>
+      <c r="K55" s="70"/>
+    </row>
+    <row r="56" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="82">
+        <v>50</v>
+      </c>
+      <c r="B56" s="69"/>
+      <c r="C56" s="68"/>
+      <c r="D56" s="68"/>
+      <c r="E56" s="83"/>
+      <c r="F56" s="69"/>
+      <c r="G56" s="68"/>
+      <c r="H56" s="68"/>
+      <c r="I56" s="68"/>
+      <c r="J56" s="69"/>
+      <c r="K56" s="70"/>
+    </row>
+    <row r="57" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="82">
+        <v>51</v>
+      </c>
+      <c r="B57" s="69"/>
+      <c r="C57" s="68"/>
+      <c r="D57" s="68"/>
+      <c r="E57" s="83"/>
+      <c r="F57" s="69"/>
+      <c r="G57" s="68"/>
+      <c r="H57" s="68"/>
+      <c r="I57" s="68"/>
+      <c r="J57" s="69"/>
+      <c r="K57" s="70"/>
+    </row>
+    <row r="58" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="82">
+        <v>52</v>
+      </c>
+      <c r="B58" s="69"/>
+      <c r="C58" s="68"/>
+      <c r="D58" s="68"/>
+      <c r="E58" s="83"/>
+      <c r="F58" s="69"/>
+      <c r="G58" s="68"/>
+      <c r="H58" s="68"/>
+      <c r="I58" s="68"/>
+      <c r="J58" s="69"/>
+      <c r="K58" s="70"/>
+    </row>
+    <row r="59" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="82">
+        <v>53</v>
+      </c>
+      <c r="B59" s="69"/>
+      <c r="C59" s="68"/>
+      <c r="D59" s="68"/>
+      <c r="E59" s="83"/>
+      <c r="F59" s="69"/>
+      <c r="G59" s="68"/>
+      <c r="H59" s="68"/>
+      <c r="I59" s="68"/>
+      <c r="J59" s="69"/>
+      <c r="K59" s="70"/>
+    </row>
+    <row r="60" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A60" s="82">
+        <v>54</v>
+      </c>
+      <c r="B60" s="69"/>
+      <c r="C60" s="68"/>
+      <c r="D60" s="68"/>
+      <c r="E60" s="83"/>
+      <c r="F60" s="69"/>
+      <c r="G60" s="68"/>
+      <c r="H60" s="68"/>
+      <c r="I60" s="68"/>
+      <c r="J60" s="69"/>
+      <c r="K60" s="70"/>
+    </row>
+    <row r="61" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A61" s="82">
+        <v>55</v>
+      </c>
+      <c r="B61" s="69"/>
+      <c r="C61" s="68"/>
+      <c r="D61" s="68"/>
+      <c r="E61" s="83"/>
+      <c r="F61" s="69"/>
+      <c r="G61" s="68"/>
+      <c r="H61" s="68"/>
+      <c r="I61" s="68"/>
+      <c r="J61" s="69"/>
+      <c r="K61" s="70"/>
+    </row>
+    <row r="62" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="82">
+        <v>56</v>
+      </c>
+      <c r="B62" s="69"/>
+      <c r="C62" s="68"/>
+      <c r="D62" s="68"/>
+      <c r="E62" s="83"/>
+      <c r="F62" s="69"/>
+      <c r="G62" s="68"/>
+      <c r="H62" s="68"/>
+      <c r="I62" s="68"/>
+      <c r="J62" s="69"/>
+      <c r="K62" s="70"/>
+    </row>
+    <row r="63" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="82">
+        <v>57</v>
+      </c>
+      <c r="B63" s="69"/>
+      <c r="C63" s="68"/>
+      <c r="D63" s="68"/>
+      <c r="E63" s="83"/>
+      <c r="F63" s="69"/>
+      <c r="G63" s="68"/>
+      <c r="H63" s="68"/>
+      <c r="I63" s="68"/>
+      <c r="J63" s="69"/>
+      <c r="K63" s="70"/>
+    </row>
+    <row r="64" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A64" s="82">
+        <v>58</v>
+      </c>
+      <c r="B64" s="69"/>
+      <c r="C64" s="68"/>
+      <c r="D64" s="68"/>
+      <c r="E64" s="83"/>
+      <c r="F64" s="69"/>
+      <c r="G64" s="68"/>
+      <c r="H64" s="68"/>
+      <c r="I64" s="68"/>
+      <c r="J64" s="69"/>
+      <c r="K64" s="70"/>
+    </row>
+    <row r="65" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A65" s="82">
+        <v>59</v>
+      </c>
+      <c r="B65" s="69"/>
+      <c r="C65" s="68"/>
+      <c r="D65" s="68"/>
+      <c r="E65" s="83"/>
+      <c r="F65" s="69"/>
+      <c r="G65" s="68"/>
+      <c r="H65" s="68"/>
+      <c r="I65" s="68"/>
+      <c r="J65" s="69"/>
+      <c r="K65" s="70"/>
+    </row>
+    <row r="66" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A66" s="82">
+        <v>60</v>
+      </c>
+      <c r="B66" s="69"/>
+      <c r="C66" s="68"/>
+      <c r="D66" s="68"/>
+      <c r="E66" s="83"/>
+      <c r="F66" s="69"/>
+      <c r="G66" s="68"/>
+      <c r="H66" s="68"/>
+      <c r="I66" s="68"/>
+      <c r="J66" s="69"/>
+      <c r="K66" s="70"/>
+    </row>
+    <row r="67" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A67" s="82">
+        <v>61</v>
+      </c>
+      <c r="B67" s="69"/>
+      <c r="C67" s="68"/>
+      <c r="D67" s="68"/>
+      <c r="E67" s="83"/>
+      <c r="F67" s="69"/>
+      <c r="G67" s="68"/>
+      <c r="H67" s="68"/>
+      <c r="I67" s="68"/>
+      <c r="J67" s="69"/>
+      <c r="K67" s="70"/>
+    </row>
+    <row r="68" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A68" s="82">
+        <v>62</v>
+      </c>
+      <c r="B68" s="69"/>
+      <c r="C68" s="68"/>
+      <c r="D68" s="68"/>
+      <c r="E68" s="83"/>
+      <c r="F68" s="69"/>
+      <c r="G68" s="68"/>
+      <c r="H68" s="68"/>
+      <c r="I68" s="68"/>
+      <c r="J68" s="69"/>
+      <c r="K68" s="70"/>
+    </row>
+    <row r="69" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A69" s="82">
+        <v>63</v>
+      </c>
+      <c r="B69" s="69"/>
+      <c r="C69" s="68"/>
+      <c r="D69" s="68"/>
+      <c r="E69" s="83"/>
+      <c r="F69" s="69"/>
+      <c r="G69" s="68"/>
+      <c r="H69" s="68"/>
+      <c r="I69" s="68"/>
+      <c r="J69" s="69"/>
+      <c r="K69" s="70"/>
+    </row>
+    <row r="70" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A70" s="82">
+        <v>64</v>
+      </c>
+      <c r="B70" s="69"/>
+      <c r="C70" s="68"/>
+      <c r="D70" s="68"/>
+      <c r="E70" s="83"/>
+      <c r="F70" s="69"/>
+      <c r="G70" s="68"/>
+      <c r="H70" s="68"/>
+      <c r="I70" s="68"/>
+      <c r="J70" s="69"/>
+      <c r="K70" s="70"/>
+    </row>
+    <row r="71" spans="1:11" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A71" s="84">
+        <v>65</v>
+      </c>
+      <c r="B71" s="85"/>
+      <c r="C71" s="86"/>
+      <c r="D71" s="86"/>
+      <c r="E71" s="87"/>
+      <c r="F71" s="85"/>
+      <c r="G71" s="86"/>
+      <c r="H71" s="86"/>
+      <c r="I71" s="86"/>
+      <c r="J71" s="85"/>
+      <c r="K71" s="88"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="72" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;18&amp;A</oddHeader>
+  </headerFooter>
+</worksheet>
 </file>